--- a/Zhanjiang Natural Mangrove, Restored Mangrove, and Tidal flat Soil Dataset.xlsx
+++ b/Zhanjiang Natural Mangrove, Restored Mangrove, and Tidal flat Soil Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\黄敏德\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7A9770-0FAA-4453-83C0-403A34654044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786AC3E1-E20D-4E9C-8C39-39EAD7717C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{370662EF-5B63-4994-8AB0-4A30EB5ED100}"/>
   </bookViews>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t>Types</t>
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
   </si>
   <si>
     <t>Soil bulk density(g/cm3)</t>
@@ -829,27 +823,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675AAB4B-7D1E-419A-976B-F09E5E08740E}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,25 +866,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>110.1721</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20.903549999999999</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -906,25 +892,19 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>110.380126</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20.662637</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -938,25 +918,19 @@
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="1">
-        <v>109.960921</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20.459004</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
@@ -970,25 +944,19 @@
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="1">
-        <v>110.40025</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20.599795</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -1002,25 +970,19 @@
       <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="1">
-        <v>109.9055</v>
-      </c>
-      <c r="D6" s="1">
-        <v>21.36937</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>40</v>
@@ -1034,25 +996,19 @@
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="1">
-        <v>109.750567</v>
-      </c>
-      <c r="D7" s="1">
-        <v>21.568180999999999</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -1066,25 +1022,19 @@
       <c r="H7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>110.170188</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20.904160000000001</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>55</v>
@@ -1098,25 +1048,19 @@
       <c r="H8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="1">
-        <v>110.38016399999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20.662184</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>62</v>
@@ -1130,25 +1074,19 @@
       <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="1">
-        <v>109.96088</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20.461109</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>69</v>
@@ -1162,25 +1100,19 @@
       <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="1">
-        <v>110.400201</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20.599916</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -1194,25 +1126,19 @@
       <c r="H11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="1">
-        <v>109.900465</v>
-      </c>
-      <c r="D12" s="1">
-        <v>21.36871</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>83</v>
@@ -1226,25 +1152,19 @@
       <c r="H12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" s="1">
-        <v>109.75059299999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>21.570032000000001</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>90</v>
@@ -1258,25 +1178,19 @@
       <c r="H13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="1">
-        <v>110.170188</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20.904160000000001</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>98</v>
@@ -1290,25 +1204,19 @@
       <c r="H14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C15" s="1">
-        <v>110.380214</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20.667884000000001</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>105</v>
@@ -1322,25 +1230,19 @@
       <c r="H15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C16" s="1">
-        <v>109.960973</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20.45842</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>112</v>
@@ -1354,25 +1256,19 @@
       <c r="H16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C17" s="1">
-        <v>110.40026400000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>20.601669999999999</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>119</v>
@@ -1386,25 +1282,19 @@
       <c r="H17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C18" s="1">
-        <v>109.90037</v>
-      </c>
-      <c r="D18" s="1">
-        <v>21.369167000000001</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>126</v>
@@ -1418,25 +1308,19 @@
       <c r="H18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C19" s="1">
-        <v>109.76057</v>
-      </c>
-      <c r="D19" s="1">
-        <v>21.566552000000001</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>133</v>
@@ -1449,12 +1333,6 @@
       </c>
       <c r="H19" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
